--- a/DatabaseScript/CorrectData.xlsx
+++ b/DatabaseScript/CorrectData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dumitru.grosu\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mihai.trandafir\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A53B971C-A20A-4DA7-BED0-885CA14D9DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF8DC054-0731-48D1-AE82-FCD9E30D79ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="487">
   <si>
     <t>id_barge</t>
   </si>
@@ -1231,6 +1231,9 @@
   </si>
   <si>
     <t>EUROBUKL555,</t>
+  </si>
+  <si>
+    <t>EUROBULK508</t>
   </si>
   <si>
     <t>EUROBULK501</t>
@@ -1835,23 +1838,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D244"/>
+  <dimension ref="A1:D245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="A205" sqref="A205:XFD205"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="C212" sqref="C212"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="204.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="19.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="204.77734375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="24.88671875" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1865,7 +1868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>7364</v>
       </c>
@@ -1879,7 +1882,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>3294</v>
       </c>
@@ -1893,7 +1896,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>7333</v>
       </c>
@@ -1907,7 +1910,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4881</v>
       </c>
@@ -1921,7 +1924,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>1731</v>
       </c>
@@ -1935,7 +1938,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>1564</v>
       </c>
@@ -1949,7 +1952,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>923</v>
       </c>
@@ -1963,7 +1966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>182</v>
       </c>
@@ -1977,7 +1980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>228</v>
       </c>
@@ -1991,7 +1994,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>9174</v>
       </c>
@@ -2005,7 +2008,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>938</v>
       </c>
@@ -2019,7 +2022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>974</v>
       </c>
@@ -2033,7 +2036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>2518</v>
       </c>
@@ -2047,7 +2050,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>1382</v>
       </c>
@@ -2061,7 +2064,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>1570</v>
       </c>
@@ -2075,7 +2078,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>4202</v>
       </c>
@@ -2089,7 +2092,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>7132</v>
       </c>
@@ -2103,7 +2106,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>4881</v>
       </c>
@@ -2117,7 +2120,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>8044</v>
       </c>
@@ -2131,7 +2134,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>1436</v>
       </c>
@@ -2145,7 +2148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>8717</v>
       </c>
@@ -2159,7 +2162,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>5321</v>
       </c>
@@ -2173,7 +2176,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>2135</v>
       </c>
@@ -2187,7 +2190,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>1755</v>
       </c>
@@ -2201,7 +2204,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>2835</v>
       </c>
@@ -2215,7 +2218,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>677</v>
       </c>
@@ -2229,7 +2232,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>729</v>
       </c>
@@ -2243,7 +2246,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>1125</v>
       </c>
@@ -2257,7 +2260,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>1116</v>
       </c>
@@ -2271,7 +2274,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>1553</v>
       </c>
@@ -2285,7 +2288,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>1281</v>
       </c>
@@ -2299,7 +2302,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>1348</v>
       </c>
@@ -2313,7 +2316,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>562</v>
       </c>
@@ -2327,7 +2330,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>344</v>
       </c>
@@ -2341,7 +2344,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>1261</v>
       </c>
@@ -2355,7 +2358,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>2505</v>
       </c>
@@ -2369,7 +2372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>4607</v>
       </c>
@@ -2383,7 +2386,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>8332</v>
       </c>
@@ -2397,7 +2400,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>4912</v>
       </c>
@@ -2411,7 +2414,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>2844</v>
       </c>
@@ -2425,7 +2428,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>5827</v>
       </c>
@@ -2439,7 +2442,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>8676</v>
       </c>
@@ -2453,7 +2456,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>2569</v>
       </c>
@@ -2467,7 +2470,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>5632</v>
       </c>
@@ -2481,7 +2484,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>8155</v>
       </c>
@@ -2495,7 +2498,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>2272</v>
       </c>
@@ -2509,7 +2512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>5061</v>
       </c>
@@ -2523,7 +2526,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>5602</v>
       </c>
@@ -2537,7 +2540,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>3107</v>
       </c>
@@ -2551,7 +2554,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>4528</v>
       </c>
@@ -2565,7 +2568,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>4852</v>
       </c>
@@ -2579,7 +2582,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>3555</v>
       </c>
@@ -2593,7 +2596,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>7785</v>
       </c>
@@ -2607,7 +2610,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>7827</v>
       </c>
@@ -2621,7 +2624,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>8420</v>
       </c>
@@ -2635,7 +2638,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>2611</v>
       </c>
@@ -2649,7 +2652,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>8225</v>
       </c>
@@ -2663,7 +2666,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>4001</v>
       </c>
@@ -2677,7 +2680,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>1096</v>
       </c>
@@ -2691,7 +2694,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>1381</v>
       </c>
@@ -2705,7 +2708,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>3069</v>
       </c>
@@ -2719,7 +2722,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>7664</v>
       </c>
@@ -2733,7 +2736,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>8524</v>
       </c>
@@ -2747,7 +2750,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>329</v>
       </c>
@@ -2761,7 +2764,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>348</v>
       </c>
@@ -2775,7 +2778,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>2227</v>
       </c>
@@ -2789,7 +2792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>6730</v>
       </c>
@@ -2803,7 +2806,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>8808</v>
       </c>
@@ -2817,7 +2820,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>774</v>
       </c>
@@ -2831,7 +2834,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>776</v>
       </c>
@@ -2845,7 +2848,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>1443</v>
       </c>
@@ -2859,7 +2862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>1410</v>
       </c>
@@ -2873,7 +2876,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>3399</v>
       </c>
@@ -2887,7 +2890,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>843</v>
       </c>
@@ -2901,7 +2904,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>1855</v>
       </c>
@@ -2915,7 +2918,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>1342</v>
       </c>
@@ -2929,7 +2932,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>1224</v>
       </c>
@@ -2943,7 +2946,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>2147</v>
       </c>
@@ -2957,7 +2960,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>1331</v>
       </c>
@@ -2971,7 +2974,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>1228</v>
       </c>
@@ -2985,7 +2988,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>145</v>
       </c>
@@ -2999,7 +3002,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>1097</v>
       </c>
@@ -3013,7 +3016,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>101</v>
       </c>
@@ -3027,7 +3030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>4947</v>
       </c>
@@ -3041,7 +3044,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>564</v>
       </c>
@@ -3055,7 +3058,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>1952</v>
       </c>
@@ -3069,7 +3072,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>1416</v>
       </c>
@@ -3083,7 +3086,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>1045</v>
       </c>
@@ -3097,7 +3100,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>839</v>
       </c>
@@ -3111,7 +3114,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>5446</v>
       </c>
@@ -3125,7 +3128,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>3312</v>
       </c>
@@ -3139,7 +3142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>1467</v>
       </c>
@@ -3153,7 +3156,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>151</v>
       </c>
@@ -3167,7 +3170,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>1135</v>
       </c>
@@ -3181,7 +3184,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>255</v>
       </c>
@@ -3195,7 +3198,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>142</v>
       </c>
@@ -3209,7 +3212,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>7263</v>
       </c>
@@ -3223,7 +3226,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>1463</v>
       </c>
@@ -3237,7 +3240,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>4490</v>
       </c>
@@ -3251,7 +3254,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>1203</v>
       </c>
@@ -3265,7 +3268,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>848</v>
       </c>
@@ -3279,7 +3282,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>429</v>
       </c>
@@ -3293,7 +3296,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>58</v>
       </c>
@@ -3307,7 +3310,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>1129</v>
       </c>
@@ -3321,7 +3324,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>779</v>
       </c>
@@ -3335,7 +3338,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>1981</v>
       </c>
@@ -3349,7 +3352,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>1028</v>
       </c>
@@ -3363,7 +3366,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>1120</v>
       </c>
@@ -3377,7 +3380,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>158</v>
       </c>
@@ -3391,7 +3394,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>8177</v>
       </c>
@@ -3405,7 +3408,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>8741</v>
       </c>
@@ -3419,7 +3422,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>7854</v>
       </c>
@@ -3433,7 +3436,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>8079</v>
       </c>
@@ -3447,7 +3450,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>7876</v>
       </c>
@@ -3461,7 +3464,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>8874</v>
       </c>
@@ -3475,7 +3478,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>4363</v>
       </c>
@@ -3489,7 +3492,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>841</v>
       </c>
@@ -3503,7 +3506,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>691</v>
       </c>
@@ -3517,7 +3520,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>808</v>
       </c>
@@ -3531,7 +3534,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>4342</v>
       </c>
@@ -3545,7 +3548,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>1877</v>
       </c>
@@ -3559,7 +3562,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>5195</v>
       </c>
@@ -3573,7 +3576,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>828</v>
       </c>
@@ -3587,7 +3590,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>311</v>
       </c>
@@ -3601,7 +3604,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>4350</v>
       </c>
@@ -3615,7 +3618,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>9236</v>
       </c>
@@ -3629,7 +3632,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>4713</v>
       </c>
@@ -3643,7 +3646,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>1003</v>
       </c>
@@ -3657,7 +3660,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>3204</v>
       </c>
@@ -3671,7 +3674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>55</v>
       </c>
@@ -3685,7 +3688,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>183</v>
       </c>
@@ -3699,7 +3702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>139</v>
       </c>
@@ -3713,7 +3716,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>3078</v>
       </c>
@@ -3727,7 +3730,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>9321</v>
       </c>
@@ -3741,7 +3744,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>1935</v>
       </c>
@@ -3755,7 +3758,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>464</v>
       </c>
@@ -3769,7 +3772,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>1993</v>
       </c>
@@ -3783,7 +3786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>289</v>
       </c>
@@ -3797,7 +3800,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <v>119</v>
       </c>
@@ -3811,7 +3814,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>7988</v>
       </c>
@@ -3825,7 +3828,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <v>3666</v>
       </c>
@@ -3839,7 +3842,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>1457</v>
       </c>
@@ -3853,7 +3856,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>4287</v>
       </c>
@@ -3867,7 +3870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>47</v>
       </c>
@@ -3881,7 +3884,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>54</v>
       </c>
@@ -3895,7 +3898,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>338</v>
       </c>
@@ -3909,7 +3912,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>4327</v>
       </c>
@@ -3923,7 +3926,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>1038</v>
       </c>
@@ -3937,7 +3940,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>3164</v>
       </c>
@@ -3951,7 +3954,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>2987</v>
       </c>
@@ -3965,7 +3968,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <v>27</v>
       </c>
@@ -3979,7 +3982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <v>2194</v>
       </c>
@@ -3993,7 +3996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <v>580</v>
       </c>
@@ -4007,7 +4010,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <v>7697</v>
       </c>
@@ -4021,7 +4024,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <v>2790</v>
       </c>
@@ -4035,7 +4038,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <v>1081</v>
       </c>
@@ -4049,7 +4052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <v>470</v>
       </c>
@@ -4063,7 +4066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <v>1312</v>
       </c>
@@ -4077,7 +4080,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <v>5141</v>
       </c>
@@ -4091,7 +4094,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <v>6713</v>
       </c>
@@ -4105,7 +4108,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <v>5156</v>
       </c>
@@ -4119,7 +4122,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <v>4773</v>
       </c>
@@ -4133,7 +4136,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <v>3308</v>
       </c>
@@ -4147,7 +4150,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <v>7760</v>
       </c>
@@ -4161,7 +4164,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <v>7354</v>
       </c>
@@ -4175,7 +4178,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <v>2845</v>
       </c>
@@ -4189,7 +4192,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <v>7735</v>
       </c>
@@ -4203,7 +4206,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <v>452</v>
       </c>
@@ -4217,7 +4220,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <v>1555</v>
       </c>
@@ -4231,7 +4234,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <v>93</v>
       </c>
@@ -4245,7 +4248,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <v>8059</v>
       </c>
@@ -4259,7 +4262,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <v>614</v>
       </c>
@@ -4273,7 +4276,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <v>956</v>
       </c>
@@ -4287,7 +4290,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <v>1862</v>
       </c>
@@ -4301,7 +4304,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <v>875</v>
       </c>
@@ -4315,7 +4318,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <v>6074</v>
       </c>
@@ -4329,7 +4332,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <v>405</v>
       </c>
@@ -4343,7 +4346,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <v>725</v>
       </c>
@@ -4354,7 +4357,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <v>3636</v>
       </c>
@@ -4365,7 +4368,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <v>8205</v>
       </c>
@@ -4379,7 +4382,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <v>7212</v>
       </c>
@@ -4393,7 +4396,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <v>7909</v>
       </c>
@@ -4407,7 +4410,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <v>5811</v>
       </c>
@@ -4421,7 +4424,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <v>4987</v>
       </c>
@@ -4435,7 +4438,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <v>6702</v>
       </c>
@@ -4449,7 +4452,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <v>1839</v>
       </c>
@@ -4463,7 +4466,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <v>3088</v>
       </c>
@@ -4477,7 +4480,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <v>5686</v>
       </c>
@@ -4488,7 +4491,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <v>5359</v>
       </c>
@@ -4499,7 +4502,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <v>7290</v>
       </c>
@@ -4510,7 +4513,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <v>4437</v>
       </c>
@@ -4521,7 +4524,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <v>1665</v>
       </c>
@@ -4532,7 +4535,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <v>6040</v>
       </c>
@@ -4543,7 +4546,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <v>2765</v>
       </c>
@@ -4554,7 +4557,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <v>3591</v>
       </c>
@@ -4565,7 +4568,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <v>2267</v>
       </c>
@@ -4576,7 +4579,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <v>4157</v>
       </c>
@@ -4587,7 +4590,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <v>775</v>
       </c>
@@ -4595,10 +4598,10 @@
         <v>395</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <v>251</v>
       </c>
@@ -4606,10 +4609,10 @@
         <v>396</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <v>433</v>
       </c>
@@ -4617,10 +4620,10 @@
         <v>397</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <v>2671</v>
       </c>
@@ -4631,7 +4634,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <v>1627</v>
       </c>
@@ -4639,10 +4642,10 @@
         <v>399</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <v>678</v>
       </c>
@@ -4650,447 +4653,455 @@
         <v>400</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
+        <v>3565</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A206" s="2">
         <v>1627</v>
       </c>
-      <c r="B205" s="2" t="s">
+      <c r="B206" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="C205" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A206" s="2">
+      <c r="C206" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A207" s="2">
         <v>291</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A207" s="2">
-        <v>4023</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>403</v>
       </c>
       <c r="C207" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A208" s="2">
+        <v>4023</v>
+      </c>
+      <c r="B208" s="2" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A208" s="2">
+      <c r="C208" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A209" s="2">
         <v>401</v>
-      </c>
-      <c r="B208" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209" s="2">
-        <v>7969</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>406</v>
       </c>
       <c r="C209" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A210" s="2">
+        <v>7969</v>
+      </c>
+      <c r="B210" s="2" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A210" s="2">
+      <c r="C210" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A211" s="2">
         <v>6801</v>
       </c>
-      <c r="B210" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="C210" s="2" t="s">
+      <c r="B211" s="2" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A211" s="2">
+      <c r="C211" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A212" s="2">
         <v>9021</v>
       </c>
-      <c r="B211" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="C211" s="2" t="s">
+      <c r="B212" s="2" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A212" s="2">
+      <c r="C212" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A213" s="2">
         <v>8562</v>
       </c>
-      <c r="B212" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="C212" s="2" t="s">
+      <c r="B213" s="2" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A213" s="2">
+      <c r="C213" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A214" s="2">
         <v>5728</v>
-      </c>
-      <c r="B213" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214" s="2">
-        <v>3414</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>415</v>
       </c>
       <c r="C214" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A215" s="2">
+        <v>3414</v>
+      </c>
+      <c r="B215" s="2" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A215" s="2">
+      <c r="C215" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A216" s="2">
         <v>1744</v>
       </c>
-      <c r="B215" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="C215" s="2" t="s">
+      <c r="B216" s="2" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A216" s="2">
+      <c r="C216" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A217" s="2">
         <v>2860</v>
       </c>
-      <c r="B216" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="C216" s="2" t="s">
+      <c r="B217" s="2" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A217" s="2">
+      <c r="C217" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A218" s="2">
         <v>3354</v>
       </c>
-      <c r="B217" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="C217" s="2" t="s">
+      <c r="B218" s="2" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A218" s="2">
+      <c r="C218" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A219" s="2">
         <v>9024</v>
       </c>
-      <c r="B218" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="C218" s="2" t="s">
+      <c r="B219" s="2" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A219" s="2">
+      <c r="C219" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A220" s="2">
         <v>5161</v>
       </c>
-      <c r="B219" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="C219" s="2" t="s">
+      <c r="B220" s="2" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A220" s="2">
+      <c r="C220" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A221" s="2">
         <v>4914</v>
       </c>
-      <c r="B220" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="C220" s="3" t="s">
+      <c r="B221" s="2" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A221" s="2">
+      <c r="C221" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A222" s="2">
         <v>2477</v>
       </c>
-      <c r="B221" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="C221" s="2" t="s">
+      <c r="B222" s="2" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A222" s="2">
+      <c r="C222" s="2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A223" s="2">
         <v>2173</v>
       </c>
-      <c r="B222" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="C222" s="3" t="s">
+      <c r="B223" s="2" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A223" s="2">
+      <c r="C223" s="3" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A224" s="2">
         <v>1392</v>
       </c>
-      <c r="B223" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="C223" s="3" t="s">
+      <c r="B224" s="2" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A224" s="2">
+      <c r="C224" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A225" s="2">
         <v>2847</v>
       </c>
-      <c r="B224" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="C224" s="2" t="s">
+      <c r="B225" s="2" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A225" s="3">
+      <c r="C225" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A226" s="3">
         <v>2168</v>
       </c>
-      <c r="B225" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="C225" s="3" t="s">
+      <c r="B226" s="2" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A226" s="3">
+      <c r="C226" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A227" s="3">
         <v>8875</v>
       </c>
-      <c r="B226" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="C226" s="3" t="s">
+      <c r="B227" s="2" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A227" s="3">
+      <c r="C227" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A228" s="3">
         <v>3375</v>
       </c>
-      <c r="B227" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="C227" s="3" t="s">
+      <c r="B228" s="3" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A228" s="3">
+      <c r="C228" s="3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A229" s="3">
         <v>7598</v>
       </c>
-      <c r="B228" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="C228" s="3" t="s">
+      <c r="B229" s="3" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A229" s="3">
+      <c r="C229" s="3" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A230" s="3">
         <v>3810</v>
       </c>
-      <c r="B229" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="C229" s="2" t="s">
+      <c r="B230" s="2" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A230" s="2">
+      <c r="C230" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A231" s="2">
         <v>7568</v>
       </c>
-      <c r="B230" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="C230" s="2" t="s">
+      <c r="B231" s="2" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A231" s="2">
+      <c r="C231" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A232" s="2">
         <v>7981</v>
       </c>
-      <c r="B231" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="C231" s="3" t="s">
+      <c r="B232" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A232" s="3">
+      <c r="C232" s="3" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A233" s="3">
         <v>3055</v>
       </c>
-      <c r="B232" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A233" s="3">
-        <v>5771</v>
-      </c>
-      <c r="B233" s="3" t="s">
+      <c r="B233" s="2" t="s">
         <v>453</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="3">
-        <v>2210</v>
+        <v>5771</v>
       </c>
       <c r="B234" s="3" t="s">
         <v>454</v>
       </c>
       <c r="C234" s="2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A235" s="3">
+        <v>2210</v>
+      </c>
+      <c r="B235" s="3" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A235" s="3">
+      <c r="C235" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A236" s="3">
         <v>4232</v>
       </c>
-      <c r="B235" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="C235" s="2" t="s">
+      <c r="B236" s="2" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A236" s="3">
+      <c r="C236" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A237" s="3">
         <v>2734</v>
       </c>
-      <c r="B236" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="C236" s="2" t="s">
+      <c r="B237" s="2" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A237" s="2">
+      <c r="C237" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A238" s="2">
         <v>2414</v>
       </c>
-      <c r="B237" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="C237" s="2" t="s">
+      <c r="B238" s="2" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A238" s="3">
+      <c r="C238" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A239" s="3">
         <v>9196</v>
       </c>
-      <c r="B238" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="C238" s="2" t="s">
+      <c r="B239" s="2" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A239" s="3">
+      <c r="C239" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A240" s="3">
         <v>2101</v>
       </c>
-      <c r="B239" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="C239" s="3" t="s">
+      <c r="B240" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C240" s="3" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A241" s="3">
+        <v>2919</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="C241" s="3" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A240" s="3">
-        <v>2919</v>
-      </c>
-      <c r="B240" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="C240" s="3" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A241" s="3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A242" s="3">
         <v>9270</v>
       </c>
-      <c r="B241" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="C241" s="3" t="s">
+      <c r="B242" s="2" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A242" s="3">
+      <c r="C242" s="3" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A243" s="3">
         <v>9269</v>
       </c>
-      <c r="B242" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="C242" s="3" t="s">
+      <c r="B243" s="2" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A243" s="3">
+      <c r="C243" s="3" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A244" s="3">
         <v>7030</v>
       </c>
-      <c r="B243" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="C243" s="2" t="s">
+      <c r="B244" s="3" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A244" s="3">
+      <c r="C244" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A245" s="3">
         <v>3115</v>
       </c>
-      <c r="B244" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="C244" s="2" t="s">
+      <c r="B245" s="2" t="s">
         <v>477</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>478</v>
       </c>
     </row>
   </sheetData>

--- a/DatabaseScript/CorrectData.xlsx
+++ b/DatabaseScript/CorrectData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mihai.trandafir\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dumitru.grosu\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF8DC054-0731-48D1-AE82-FCD9E30D79ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B1545E-61B0-4BED-AA09-1A9DD37B6730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="486">
   <si>
     <t>id_barge</t>
-  </si>
-  <si>
-    <t>id_user</t>
   </si>
   <si>
     <t>primary</t>
@@ -1840,3268 +1837,2711 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="C212" sqref="C212"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="27.109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="204.77734375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="24.88671875" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="19.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="42.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>7364</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>3294</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>7333</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4881</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1731</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1564</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>923</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>182</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>228</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9174</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>938</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>974</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>2518</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>1382</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>1570</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>4202</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>7132</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>4881</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>8044</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>1436</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>8717</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>5321</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>2135</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>1755</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>2835</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>677</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D27" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>729</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D28" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>1125</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>1116</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D30" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>1553</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D31" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>1281</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D32" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>1348</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D33" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>562</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D34" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>344</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D35" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>1261</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D36" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>2505</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D37" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>4607</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D38" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>8332</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D39" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>4912</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D40" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>2844</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D41" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>5827</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D42" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>8676</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D43" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>2569</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D44" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>5632</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D45" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>8155</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D46" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>2272</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D47" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>5061</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D48" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>5602</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D49" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>3107</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D50" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>4528</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D51" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>4852</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D52" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>3555</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D53" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>7785</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D54" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>7827</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D55" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>8420</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D56" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>2611</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D57" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>8225</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D58" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>4001</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D59" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>1096</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D60" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>1381</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D61" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>3069</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D62" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>7664</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D63" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>8524</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D64" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>329</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D65" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>348</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D66" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>2227</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D67" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>6730</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D68" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>8808</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D69" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>774</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D70" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>776</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D71" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>1443</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D72" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>1410</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D73" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>3399</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D74" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>843</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D75" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>1855</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D76" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>1342</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D77" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>1224</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D78" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>2147</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D79" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>1331</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D80" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>1228</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C81" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D81" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>145</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C82" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D82" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>1097</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C83" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D83" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>101</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D84" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>4947</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D85" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>564</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D86" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>1952</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D87" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>1416</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D88" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>1045</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D89" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>839</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C90" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D90" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>5446</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D91" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>3312</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D92" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>1467</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C93" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D93" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>151</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C94" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D94" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>1135</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D95" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>255</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D96" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>142</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="D97" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>7263</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D98" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>1463</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D99" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>4490</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="D100" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>1203</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="D101" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>848</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D102" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>429</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D103" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>58</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="D104" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>1129</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D105" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>779</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D106" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>1981</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D107" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>1028</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D108" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>1120</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D109" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>158</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="D110" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>8177</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C111" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="D111" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>8741</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C112" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D112" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>7854</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D113" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>8079</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="D114" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>7876</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D115" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>8874</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D116" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>4363</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C117" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D117" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>841</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C118" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="D118" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>691</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C119" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="D119" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>808</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C120" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D120" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>4342</v>
       </c>
       <c r="B121" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C121" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="D121" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>1877</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="D122" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>5195</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="D123" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>828</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="D124" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>311</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C125" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="D125" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>4350</v>
       </c>
       <c r="B126" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C126" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="D126" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>9236</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C127" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="D127" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>4713</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="D128" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>1003</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C129" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="D129" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>3204</v>
       </c>
       <c r="B130" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C130" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="D130" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>55</v>
       </c>
       <c r="B131" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C131" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="D131" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>183</v>
       </c>
       <c r="B132" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C132" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="D132" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>139</v>
       </c>
       <c r="B133" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C133" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="D133" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>3078</v>
       </c>
       <c r="B134" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C134" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="D134" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>9321</v>
       </c>
       <c r="B135" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C135" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="D135" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>1935</v>
       </c>
       <c r="B136" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C136" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="D136" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>464</v>
       </c>
       <c r="B137" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C137" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C137" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D137" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>1993</v>
       </c>
       <c r="B138" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C138" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="C138" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D138" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>289</v>
       </c>
       <c r="B139" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C139" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="D139" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>119</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D140" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>7988</v>
       </c>
       <c r="B141" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C141" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="C141" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="D141" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>3666</v>
       </c>
       <c r="B142" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C142" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C142" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="D142" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>1457</v>
       </c>
       <c r="B143" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C143" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C143" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="D143" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>4287</v>
       </c>
       <c r="B144" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C144" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C144" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="D144" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>47</v>
       </c>
       <c r="B145" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C145" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C145" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D145" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>54</v>
       </c>
       <c r="B146" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C146" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="C146" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D146" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>338</v>
       </c>
       <c r="B147" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C147" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="C147" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="D147" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>4327</v>
       </c>
       <c r="B148" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C148" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="C148" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="D148" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>1038</v>
       </c>
       <c r="B149" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C149" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C149" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="D149" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>3164</v>
       </c>
       <c r="B150" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C150" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C150" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="D150" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>2987</v>
       </c>
       <c r="B151" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C151" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C151" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="D151" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>27</v>
       </c>
       <c r="B152" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C152" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="C152" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="D152" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>2194</v>
       </c>
       <c r="B153" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C153" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="C153" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="D153" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>580</v>
       </c>
       <c r="B154" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C154" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="C154" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="D154" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>7697</v>
       </c>
       <c r="B155" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C155" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="C155" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="D155" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>2790</v>
       </c>
       <c r="B156" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C156" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="C156" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="D156" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>1081</v>
       </c>
       <c r="B157" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C157" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="C157" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="D157" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>470</v>
       </c>
       <c r="B158" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C158" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="C158" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="D158" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>1312</v>
       </c>
       <c r="B159" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C159" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="C159" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="D159" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>5141</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="D160" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>6713</v>
       </c>
       <c r="B161" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C161" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="C161" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="D161" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>5156</v>
       </c>
       <c r="B162" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C162" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="C162" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="D162" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>4773</v>
       </c>
       <c r="B163" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C163" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="C163" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="D163" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>3308</v>
       </c>
       <c r="B164" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C164" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="C164" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="D164" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>7760</v>
       </c>
       <c r="B165" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C165" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="C165" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="D165" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>7354</v>
       </c>
       <c r="B166" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C166" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="C166" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="D166" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>2845</v>
       </c>
       <c r="B167" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C167" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="C167" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="D167" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>7735</v>
       </c>
       <c r="B168" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C168" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="C168" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="D168" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>452</v>
       </c>
       <c r="B169" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C169" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="C169" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="D169" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>1555</v>
       </c>
       <c r="B170" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C170" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="C170" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="D170" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>93</v>
       </c>
       <c r="B171" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C171" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="C171" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="D171" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>8059</v>
       </c>
       <c r="B172" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C172" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="C172" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="D172" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>614</v>
       </c>
       <c r="B173" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C173" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="C173" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="D173" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>956</v>
       </c>
       <c r="B174" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C174" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="C174" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="D174" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>1862</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="D175" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>875</v>
       </c>
       <c r="B176" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C176" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="C176" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="D176" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>6074</v>
       </c>
       <c r="B177" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C177" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="C177" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="D177" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>405</v>
       </c>
       <c r="B178" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C178" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="C178" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="D178" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>725</v>
       </c>
       <c r="B179" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C179" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="C179" s="2" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>3636</v>
       </c>
       <c r="B180" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C180" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="C180" s="2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>8205</v>
       </c>
       <c r="B181" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C181" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="C181" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="D181" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>7212</v>
       </c>
       <c r="B182" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C182" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="C182" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="D182" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>7909</v>
       </c>
       <c r="B183" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C183" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="C183" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="D183" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>5811</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="D184" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>4987</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="D185" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>6702</v>
       </c>
       <c r="B186" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C186" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C186" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="D186" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>1839</v>
       </c>
       <c r="B187" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C187" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="C187" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="D187" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>3088</v>
       </c>
       <c r="B188" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C188" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="C188" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="D188" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>5686</v>
       </c>
       <c r="B189" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C189" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="C189" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>5359</v>
       </c>
       <c r="B190" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C190" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="C190" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>7290</v>
       </c>
       <c r="B191" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C191" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="C191" s="2" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>4437</v>
       </c>
       <c r="B192" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C192" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="C192" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>1665</v>
       </c>
       <c r="B193" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C193" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="C193" s="2" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>6040</v>
       </c>
       <c r="B194" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C194" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="C194" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>2765</v>
       </c>
       <c r="B195" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C195" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="C195" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>3591</v>
       </c>
       <c r="B196" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C196" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="C196" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>2267</v>
       </c>
       <c r="B197" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C197" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="C197" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>4157</v>
       </c>
       <c r="B198" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="C198" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="C198" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>775</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>251</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>433</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>2671</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
         <v>1627</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>678</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
         <v>3565</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
         <v>1627</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
         <v>291</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>4023</v>
       </c>
       <c r="B208" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C208" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="C208" s="2" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
         <v>401</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <v>7969</v>
       </c>
       <c r="B210" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C210" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="C210" s="2" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
         <v>6801</v>
       </c>
       <c r="B211" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C211" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="C211" s="2" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
         <v>9021</v>
       </c>
       <c r="B212" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C212" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="C212" s="2" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
         <v>8562</v>
       </c>
       <c r="B213" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C213" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="C213" s="2" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
         <v>5728</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
         <v>3414</v>
       </c>
       <c r="B215" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C215" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="C215" s="2" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
         <v>1744</v>
       </c>
       <c r="B216" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="C216" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="C216" s="2" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
         <v>2860</v>
       </c>
       <c r="B217" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="C217" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="C217" s="2" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
         <v>3354</v>
       </c>
       <c r="B218" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="C218" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="C218" s="2" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
         <v>9024</v>
       </c>
       <c r="B219" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="C219" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="C219" s="2" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
         <v>5161</v>
       </c>
       <c r="B220" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C220" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="C220" s="2" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
         <v>4914</v>
       </c>
       <c r="B221" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="C221" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="C221" s="3" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
         <v>2477</v>
       </c>
       <c r="B222" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="C222" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="C222" s="2" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
         <v>2173</v>
       </c>
       <c r="B223" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C223" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="C223" s="3" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
         <v>1392</v>
       </c>
       <c r="B224" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C224" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="C224" s="3" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
         <v>2847</v>
       </c>
       <c r="B225" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="C225" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="C225" s="2" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="3">
         <v>2168</v>
       </c>
       <c r="B226" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="C226" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="C226" s="3" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="3">
         <v>8875</v>
       </c>
       <c r="B227" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="C227" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="C227" s="3" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="3">
         <v>3375</v>
       </c>
       <c r="B228" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="C228" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="C228" s="3" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="3">
         <v>7598</v>
       </c>
       <c r="B229" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="C229" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="C229" s="3" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="3">
         <v>3810</v>
       </c>
       <c r="B230" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="C230" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="C230" s="2" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
         <v>7568</v>
       </c>
       <c r="B231" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="C231" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="C231" s="2" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
         <v>7981</v>
       </c>
       <c r="B232" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C232" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="C232" s="3" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="3">
         <v>3055</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="3">
         <v>5771</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="3">
         <v>2210</v>
       </c>
       <c r="B235" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="C235" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="C235" s="2" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="3">
         <v>4232</v>
       </c>
       <c r="B236" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C236" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="C236" s="2" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="3">
         <v>2734</v>
       </c>
       <c r="B237" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="C237" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="C237" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
         <v>2414</v>
       </c>
       <c r="B238" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C238" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="C238" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="3">
         <v>9196</v>
       </c>
       <c r="B239" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="C239" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="C239" s="2" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="3">
         <v>2101</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="3">
         <v>2919</v>
       </c>
       <c r="B241" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="C241" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="C241" s="3" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="3">
         <v>9270</v>
       </c>
       <c r="B242" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="C242" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="C242" s="3" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="3">
         <v>9269</v>
       </c>
       <c r="B243" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="C243" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="C243" s="3" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="3">
         <v>7030</v>
       </c>
       <c r="B244" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="C244" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="C244" s="2" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="3">
         <v>3115</v>
       </c>
       <c r="B245" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C245" s="2" t="s">
         <v>477</v>
-      </c>
-      <c r="C245" s="2" t="s">
-        <v>478</v>
       </c>
     </row>
   </sheetData>

--- a/DatabaseScript/CorrectData.xlsx
+++ b/DatabaseScript/CorrectData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dumitru.grosu\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B1545E-61B0-4BED-AA09-1A9DD37B6730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D46AB3E-5204-4CBE-A63F-0EF5C0F2BF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="485">
   <si>
     <t>id_barge</t>
   </si>
@@ -1228,9 +1228,6 @@
   </si>
   <si>
     <t>EUROBUKL555,</t>
-  </si>
-  <si>
-    <t>EUROBULK508</t>
   </si>
   <si>
     <t>EUROBULK501</t>
@@ -1835,10 +1832,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D245"/>
+  <dimension ref="A1:D244"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0">
+      <selection activeCell="A205" sqref="A205:XFD205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4038,7 +4035,7 @@
         <v>394</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -4049,7 +4046,7 @@
         <v>395</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -4060,7 +4057,7 @@
         <v>396</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -4082,7 +4079,7 @@
         <v>398</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -4093,319 +4090,322 @@
         <v>399</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
-        <v>3565</v>
+        <v>1627</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>401</v>
+        <v>398</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
-        <v>1627</v>
+        <v>291</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
-        <v>291</v>
+        <v>4023</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>402</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>483</v>
+        <v>403</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
-        <v>4023</v>
+        <v>401</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>404</v>
+        <v>477</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
-        <v>401</v>
+        <v>7969</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>405</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>478</v>
+        <v>406</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
-        <v>7969</v>
+        <v>6801</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
-        <v>6801</v>
+        <v>9021</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
-        <v>9021</v>
+        <v>8562</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
-        <v>8562</v>
+        <v>5728</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
-        <v>5728</v>
+        <v>3414</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>414</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
-        <v>3414</v>
+        <v>1744</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
-        <v>1744</v>
+        <v>2860</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
-        <v>2860</v>
+        <v>3354</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
-        <v>3354</v>
+        <v>9024</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
-        <v>9024</v>
+        <v>5161</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
-        <v>5161</v>
+        <v>4914</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="C220" s="2" t="s">
         <v>427</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
-        <v>4914</v>
+        <v>2477</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="C221" s="3" t="s">
         <v>429</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
-        <v>2477</v>
+        <v>2173</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="C222" s="2" t="s">
         <v>431</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
-        <v>2173</v>
+        <v>1392</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
-        <v>1392</v>
+        <v>2847</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="C224" s="3" t="s">
         <v>435</v>
       </c>
+      <c r="C224" s="2" t="s">
+        <v>436</v>
+      </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A225" s="2">
-        <v>2847</v>
+      <c r="A225" s="3">
+        <v>2168</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="C225" s="2" t="s">
         <v>437</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="3">
-        <v>2168</v>
+        <v>8875</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="3">
-        <v>8875</v>
-      </c>
-      <c r="B227" s="2" t="s">
-        <v>440</v>
+        <v>3375</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>441</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="3">
-        <v>3375</v>
+        <v>7598</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="3">
-        <v>7598</v>
-      </c>
-      <c r="B229" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="C229" s="3" t="s">
+        <v>3810</v>
+      </c>
+      <c r="B229" s="2" t="s">
         <v>445</v>
       </c>
+      <c r="C229" s="2" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A230" s="3">
-        <v>3810</v>
+      <c r="A230" s="2">
+        <v>7568</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
-        <v>7568</v>
+        <v>7981</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="C231" s="2" t="s">
         <v>449</v>
       </c>
+      <c r="C231" s="3" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A232" s="2">
-        <v>7981</v>
+      <c r="A232" s="3">
+        <v>3055</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="C232" s="3" t="s">
         <v>451</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="3">
-        <v>3055</v>
-      </c>
-      <c r="B233" s="2" t="s">
+        <v>5771</v>
+      </c>
+      <c r="B233" s="3" t="s">
         <v>452</v>
       </c>
       <c r="C233" s="2" t="s">
@@ -4414,134 +4414,123 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="3">
-        <v>5771</v>
+        <v>2210</v>
       </c>
       <c r="B234" s="3" t="s">
         <v>453</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="3">
-        <v>2210</v>
-      </c>
-      <c r="B235" s="3" t="s">
-        <v>454</v>
+        <v>4232</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>455</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="3">
-        <v>4232</v>
+        <v>2734</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A237" s="3">
-        <v>2734</v>
+      <c r="A237" s="2">
+        <v>2414</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A238" s="2">
-        <v>2414</v>
+      <c r="A238" s="3">
+        <v>9196</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="3">
-        <v>9196</v>
+        <v>2101</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="C239" s="2" t="s">
         <v>465</v>
+      </c>
+      <c r="C239" s="3" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="3">
-        <v>2101</v>
-      </c>
-      <c r="B240" s="2" t="s">
+        <v>2919</v>
+      </c>
+      <c r="B240" s="3" t="s">
         <v>466</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="3">
-        <v>2919</v>
-      </c>
-      <c r="B241" s="3" t="s">
-        <v>467</v>
+        <v>9270</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>469</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="3">
-        <v>9270</v>
+        <v>9269</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="3">
-        <v>9269</v>
-      </c>
-      <c r="B243" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="C243" s="3" t="s">
+        <v>7030</v>
+      </c>
+      <c r="B243" s="3" t="s">
         <v>473</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="3">
-        <v>7030</v>
-      </c>
-      <c r="B244" s="3" t="s">
-        <v>474</v>
+        <v>3115</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>475</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A245" s="3">
-        <v>3115</v>
-      </c>
-      <c r="B245" s="2" t="s">
         <v>476</v>
-      </c>
-      <c r="C245" s="2" t="s">
-        <v>477</v>
       </c>
     </row>
   </sheetData>
